--- a/Aguas y Aguas Residuales/14.6 Superficie de embalses, lagos y lagunas.xlsx
+++ b/Aguas y Aguas Residuales/14.6 Superficie de embalses, lagos y lagunas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1217D-D64B-43E1-9805-E340C43BA182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A2E3B-196A-48EE-A6CD-027BB24FC623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie_lagos" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="278">
   <si>
     <t>Región</t>
   </si>
@@ -844,6 +844,39 @@
   </si>
   <si>
     <t>Id clasificación</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
   <dimension ref="A1:S1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="C3">
         <v>15102</v>
@@ -1513,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C4">
         <v>4302</v>
@@ -1557,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="C5">
         <v>16302</v>
@@ -1601,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <v>4203</v>
@@ -1689,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C8">
         <v>13203</v>
@@ -1733,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C9">
         <v>13303</v>
@@ -1777,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C10">
         <v>4106</v>
@@ -1821,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C11">
         <v>4303</v>
@@ -1865,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>5102</v>
@@ -1909,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C13">
         <v>3103</v>
@@ -1953,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>5102</v>
@@ -1997,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>5102</v>
@@ -2041,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>6304</v>
@@ -2085,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C17">
         <v>4301</v>
@@ -2173,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>11301</v>
@@ -2217,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C20">
         <v>10403</v>
@@ -2261,7 +2294,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>11302</v>
@@ -2305,7 +2338,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>11303</v>
@@ -2349,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>11101</v>
@@ -2393,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>11202</v>
@@ -2437,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>11303</v>
@@ -2481,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>11401</v>
@@ -2525,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>11302</v>
@@ -2569,7 +2602,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>11301</v>
@@ -2613,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>11201</v>
@@ -2657,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>11101</v>
@@ -2701,7 +2734,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>11101</v>
@@ -2745,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>11402</v>
@@ -2789,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>11301</v>
@@ -2833,7 +2866,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C34">
         <v>10101</v>
@@ -2877,7 +2910,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>11201</v>
@@ -2921,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>11302</v>
@@ -2965,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>11302</v>
@@ -3009,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>11302</v>
@@ -3053,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>11202</v>
@@ -3097,7 +3130,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="C40">
         <v>9103</v>
@@ -3141,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>11301</v>
@@ -3185,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>11201</v>
@@ -3229,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>11202</v>
@@ -3273,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>11201</v>
@@ -3317,7 +3350,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>11201</v>
@@ -3361,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>11201</v>
@@ -3405,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>11101</v>
@@ -3449,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>11401</v>
@@ -3493,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>11201</v>
@@ -3537,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>11101</v>
@@ -3581,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C51">
         <v>10403</v>
@@ -3625,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="C52">
         <v>9205</v>
@@ -3669,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>11302</v>
@@ -3713,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>11201</v>
@@ -3757,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>11301</v>
@@ -3801,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="C56">
         <v>9120</v>
@@ -3845,7 +3878,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C57">
         <v>10203</v>
@@ -3889,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>11401</v>
@@ -3933,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>11301</v>
@@ -3977,7 +4010,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <v>11101</v>
@@ -4021,7 +4054,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>11402</v>
@@ -4065,7 +4098,7 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>11101</v>
@@ -4109,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C63">
         <v>11201</v>
@@ -4153,7 +4186,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>11401</v>
@@ -4197,7 +4230,7 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C65">
         <v>10402</v>
@@ -4241,7 +4274,7 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C66">
         <v>11201</v>
@@ -4285,7 +4318,7 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C67">
         <v>11202</v>
@@ -4329,7 +4362,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>11201</v>
@@ -4373,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C69">
         <v>10401</v>
@@ -4417,7 +4450,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C70">
         <v>14108</v>
@@ -4461,7 +4494,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C71">
         <v>11202</v>
@@ -4505,7 +4538,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C72">
         <v>14108</v>
@@ -4549,7 +4582,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>11101</v>
@@ -4593,7 +4626,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C74">
         <v>11201</v>
@@ -4637,7 +4670,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C75">
         <v>11201</v>
@@ -4681,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C76">
         <v>11303</v>
@@ -4725,7 +4758,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C77">
         <v>11201</v>
@@ -4769,7 +4802,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C78">
         <v>11302</v>
@@ -4813,7 +4846,7 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C79">
         <v>11202</v>
@@ -4857,7 +4890,7 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C80">
         <v>11202</v>
@@ -4901,7 +4934,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C81">
         <v>11302</v>
@@ -4945,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C82">
         <v>10109</v>
@@ -4989,7 +5022,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C83">
         <v>11201</v>
@@ -5033,7 +5066,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C84">
         <v>11402</v>
@@ -5077,7 +5110,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>11301</v>
@@ -5121,7 +5154,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C86">
         <v>11402</v>
@@ -5165,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C87">
         <v>11102</v>
@@ -5209,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C88">
         <v>11201</v>
@@ -5253,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C89">
         <v>11201</v>
@@ -5297,7 +5330,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C90">
         <v>11201</v>
@@ -5341,7 +5374,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C91">
         <v>11302</v>
@@ -5385,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="C92">
         <v>1405</v>
@@ -5429,7 +5462,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C93">
         <v>11201</v>
@@ -5473,7 +5506,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="C94">
         <v>16107</v>
@@ -5517,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C95">
         <v>10103</v>
@@ -5561,7 +5594,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="C96">
         <v>15202</v>
@@ -5605,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C97">
         <v>3202</v>
@@ -5649,7 +5682,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C98">
         <v>10403</v>
@@ -5693,7 +5726,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C99">
         <v>11401</v>
@@ -5737,7 +5770,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C100">
         <v>6116</v>
@@ -5781,7 +5814,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C101">
         <v>10109</v>
@@ -5825,7 +5858,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C102">
         <v>10401</v>
@@ -5869,7 +5902,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C103">
         <v>10208</v>
@@ -5913,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C104">
         <v>3302</v>
@@ -5957,7 +5990,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="C105">
         <v>15201</v>
@@ -6001,7 +6034,7 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C106">
         <v>11303</v>
@@ -6045,7 +6078,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="C107">
         <v>9110</v>
@@ -6089,7 +6122,7 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C108">
         <v>11202</v>
@@ -6133,7 +6166,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C109">
         <v>13404</v>
@@ -6177,7 +6210,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C110">
         <v>13302</v>
@@ -6221,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C111">
         <v>10208</v>
@@ -6265,7 +6298,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="C112">
         <v>15201</v>
@@ -6309,7 +6342,7 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="C113">
         <v>9205</v>
@@ -6397,7 +6430,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="C115">
         <v>8302</v>
@@ -6441,7 +6474,7 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C116">
         <v>10401</v>
@@ -6485,7 +6518,7 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C117">
         <v>10103</v>
@@ -6529,7 +6562,7 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C118">
         <v>11102</v>
@@ -6573,7 +6606,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C119">
         <v>6115</v>
@@ -6617,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C120">
         <v>10203</v>
@@ -6661,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C121">
         <v>5301</v>
@@ -6749,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C123">
         <v>3103</v>
@@ -6793,7 +6826,7 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C124">
         <v>10402</v>
@@ -6837,7 +6870,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C125">
         <v>4204</v>
@@ -6925,7 +6958,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C127">
         <v>3202</v>
@@ -6969,7 +7002,7 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C128">
         <v>11102</v>
@@ -7013,7 +7046,7 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C129">
         <v>10401</v>
@@ -7057,7 +7090,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C130">
         <v>10402</v>
@@ -7101,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C131">
         <v>10401</v>
@@ -7145,7 +7178,7 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C132">
         <v>3302</v>
@@ -7189,7 +7222,7 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="C133">
         <v>8108</v>
@@ -7233,7 +7266,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C134">
         <v>14203</v>
@@ -7277,7 +7310,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C135">
         <v>14203</v>
@@ -7321,7 +7354,7 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C136">
         <v>10401</v>
@@ -7365,7 +7398,7 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C137">
         <v>10103</v>
@@ -7409,7 +7442,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C138">
         <v>10401</v>
@@ -7453,7 +7486,7 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C139">
         <v>11301</v>
@@ -7497,7 +7530,7 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C140">
         <v>11302</v>
@@ -7541,7 +7574,7 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C141">
         <v>2203</v>
@@ -7585,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C142">
         <v>2203</v>
@@ -7629,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C143">
         <v>2203</v>
@@ -7673,7 +7706,7 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C144">
         <v>13203</v>
@@ -7717,7 +7750,7 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C145">
         <v>11302</v>
@@ -7761,7 +7794,7 @@
         <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C146">
         <v>14108</v>
@@ -7805,7 +7838,7 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C147">
         <v>14108</v>
@@ -7849,7 +7882,7 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C148">
         <v>5101</v>
@@ -7893,7 +7926,7 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C149">
         <v>14108</v>
@@ -7937,7 +7970,7 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C150">
         <v>10401</v>
@@ -7981,7 +8014,7 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C151">
         <v>10208</v>
@@ -8025,7 +8058,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C152">
         <v>3101</v>
@@ -8069,7 +8102,7 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C153">
         <v>10103</v>
@@ -8113,7 +8146,7 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C154">
         <v>10203</v>
@@ -8157,7 +8190,7 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C155">
         <v>10203</v>
@@ -8201,7 +8234,7 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C156">
         <v>11201</v>
@@ -8245,7 +8278,7 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C157">
         <v>10401</v>
@@ -8289,7 +8322,7 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C158">
         <v>10208</v>
@@ -8333,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C159">
         <v>2203</v>
@@ -8377,7 +8410,7 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C160">
         <v>11201</v>
@@ -8421,7 +8454,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="C161">
         <v>3101</v>
@@ -8465,7 +8498,7 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C162">
         <v>11302</v>
@@ -8553,7 +8586,7 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C164">
         <v>10103</v>
@@ -8597,7 +8630,7 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C165">
         <v>11201</v>
@@ -8641,7 +8674,7 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C166">
         <v>10208</v>

--- a/Aguas y Aguas Residuales/14.6 Superficie de embalses, lagos y lagunas.xlsx
+++ b/Aguas y Aguas Residuales/14.6 Superficie de embalses, lagos y lagunas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A2E3B-196A-48EE-A6CD-027BB24FC623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A667B1-F42D-444E-9458-005F30F66CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
@@ -1036,7 +1036,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Superficie_lagos" displayName="Superficie_lagos" ref="A1:N166" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N166" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
+  <autoFilter ref="A1:N166" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Laguna"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Cod_region" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{73B79297-9E54-40C4-B68C-8556CDAC4DF3}" uniqueName="10" name="Región" queryTableFieldId="24" dataDxfId="11"/>
@@ -1380,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
   <dimension ref="A1:S1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92:H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,8 +1403,7 @@
     <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1445,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1493,7 +1498,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1541,7 +1546,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1585,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1629,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1717,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1981,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2157,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2201,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2289,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2421,7 +2426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2465,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -2861,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2993,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3081,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3389,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -3477,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -3521,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -3565,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3653,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -3697,7 +3702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -3917,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
@@ -3961,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -4093,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -4181,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -4225,7 +4230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -4357,7 +4362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
@@ -4445,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -4577,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
@@ -4621,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -4665,7 +4670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11</v>
       </c>
@@ -4709,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -4797,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -5017,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -5149,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -5193,7 +5198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
@@ -5237,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11</v>
       </c>
@@ -5281,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -5325,7 +5330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
@@ -23416,14 +23421,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4271E310-67AC-4A30-9343-42A0DBFC9991}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>

--- a/Aguas y Aguas Residuales/14.6 Superficie de embalses, lagos y lagunas.xlsx
+++ b/Aguas y Aguas Residuales/14.6 Superficie de embalses, lagos y lagunas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A667B1-F42D-444E-9458-005F30F66CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B35C5E-9834-4646-8F85-A45F482A9624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
+    <workbookView xWindow="5160" yWindow="2235" windowWidth="15315" windowHeight="8520" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie_lagos" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="279">
   <si>
     <t>Región</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Embalse Tutuven</t>
   </si>
   <si>
-    <t>Esmeralda Lago</t>
-  </si>
-  <si>
     <t>Lago Abascal</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
     <t>Lagos Encantados</t>
   </si>
   <si>
-    <t>Laguna  Ceucis</t>
-  </si>
-  <si>
     <t>Laguna Aislada</t>
   </si>
   <si>
@@ -877,6 +871,15 @@
   </si>
   <si>
     <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Laguna Ceucis</t>
+  </si>
+  <si>
+    <t>Lago Esmeralda</t>
+  </si>
+  <si>
+    <t>Superficie (Km2)</t>
   </si>
 </sst>
 </file>
@@ -1036,13 +1039,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Superficie_lagos" displayName="Superficie_lagos" ref="A1:N166" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N166" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Laguna"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N166" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Cod_region" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{73B79297-9E54-40C4-B68C-8556CDAC4DF3}" uniqueName="10" name="Región" queryTableFieldId="24" dataDxfId="11"/>
@@ -1056,7 +1053,7 @@
     <tableColumn id="12" xr3:uid="{69161738-D56B-4B1A-8C7D-1CC8991710B7}" uniqueName="12" name="Tipo" queryTableFieldId="26" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{AC408224-C9E1-48AF-BAB6-3C35CE9799A0}" uniqueName="3" name="Id clasificación" queryTableFieldId="28"/>
     <tableColumn id="14" xr3:uid="{FF77031C-F10B-470E-8740-CD0421A63B6D}" uniqueName="14" name="Clasificación" queryTableFieldId="27" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Superficie (Ha)" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Superficie (Km2)" queryTableFieldId="9" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{00674568-A639-4E29-9870-7D558011B447}" uniqueName="13" name="Definición" queryTableFieldId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1386,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
   <dimension ref="A1:S1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92:H166"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,22 +1432,22 @@
         <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M1" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1473,19 +1470,19 @@
         <v>150102012</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
         <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M2">
         <v>1.5</v>
@@ -1498,12 +1495,12 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3">
         <v>15102</v>
@@ -1521,19 +1518,19 @@
         <v>150102012</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M3">
         <v>1.2</v>
@@ -1546,12 +1543,12 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>4302</v>
@@ -1569,19 +1566,19 @@
         <v>150102012</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
         <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M4">
         <v>8.5</v>
@@ -1590,12 +1587,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C5">
         <v>16302</v>
@@ -1613,19 +1610,19 @@
         <v>150102012</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M5">
         <v>1.1000000000000001</v>
@@ -1634,12 +1631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6">
         <v>4203</v>
@@ -1657,19 +1654,19 @@
         <v>150102012</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I6" t="s">
         <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M6">
         <v>0.8</v>
@@ -1678,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1701,19 +1698,19 @@
         <v>150102012</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M7">
         <v>4.5</v>
@@ -1722,12 +1719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8">
         <v>13203</v>
@@ -1745,19 +1742,19 @@
         <v>150102012</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M8">
         <v>5.5</v>
@@ -1766,12 +1763,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9">
         <v>13303</v>
@@ -1789,19 +1786,19 @@
         <v>150102012</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
         <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M9">
         <v>2.8</v>
@@ -1810,12 +1807,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C10">
         <v>4106</v>
@@ -1833,19 +1830,19 @@
         <v>150102012</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I10" t="s">
         <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M10">
         <v>1.6</v>
@@ -1854,12 +1851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C11">
         <v>4303</v>
@@ -1877,19 +1874,19 @@
         <v>150102012</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I11" t="s">
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M11">
         <v>25</v>
@@ -1898,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1921,19 +1918,19 @@
         <v>150102012</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I12" t="s">
         <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M12">
         <v>0.8</v>
@@ -1942,12 +1939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C13">
         <v>3103</v>
@@ -1965,19 +1962,19 @@
         <v>150102012</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I13" t="s">
         <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M13">
         <v>2.8</v>
@@ -1986,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2009,19 +2006,19 @@
         <v>150102012</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I14" t="s">
         <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M14">
         <v>0.8</v>
@@ -2030,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2053,19 +2050,19 @@
         <v>150102012</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I15" t="s">
         <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M15">
         <v>2.1</v>
@@ -2074,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2097,19 +2094,19 @@
         <v>150102012</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s">
         <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M16">
         <v>0.5</v>
@@ -2118,12 +2115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17">
         <v>4301</v>
@@ -2141,19 +2138,19 @@
         <v>150102012</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I17" t="s">
         <v>106</v>
       </c>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -2162,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2185,19 +2182,19 @@
         <v>150102012</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I18" t="s">
         <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M18">
         <v>1.6</v>
@@ -2206,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2229,19 +2226,19 @@
         <v>150102012</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="J19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M19">
         <v>6.9</v>
@@ -2250,12 +2247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C20">
         <v>10403</v>
@@ -2273,19 +2270,19 @@
         <v>150102002</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -2294,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2317,19 +2314,19 @@
         <v>150102002</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M21">
         <v>11.5</v>
@@ -2338,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2361,19 +2358,19 @@
         <v>150102002</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M22">
         <v>8.1</v>
@@ -2382,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2405,19 +2402,19 @@
         <v>150102002</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M23">
         <v>8.8000000000000007</v>
@@ -2426,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2449,19 +2446,19 @@
         <v>150102002</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M24">
         <v>4.4000000000000004</v>
@@ -2470,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2493,19 +2490,19 @@
         <v>150102002</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M25">
         <v>8.1</v>
@@ -2514,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -2537,19 +2534,19 @@
         <v>150102002</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I26" t="s">
         <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M26">
         <v>67.5</v>
@@ -2558,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -2581,19 +2578,19 @@
         <v>150102002</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M27">
         <v>15.3</v>
@@ -2602,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -2625,19 +2622,19 @@
         <v>150102002</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M28">
         <v>21.3</v>
@@ -2646,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2669,19 +2666,19 @@
         <v>150102002</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M29">
         <v>7.5</v>
@@ -2690,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2713,19 +2710,19 @@
         <v>150102002</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M30">
         <v>13.8</v>
@@ -2734,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -2757,19 +2754,19 @@
         <v>150102002</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M31">
         <v>4.4000000000000004</v>
@@ -2778,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2801,19 +2798,19 @@
         <v>150102002</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M32">
         <v>3.4</v>
@@ -2822,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -2845,19 +2842,19 @@
         <v>150102002</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M33">
         <v>11.3</v>
@@ -2866,12 +2863,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C34">
         <v>10101</v>
@@ -2889,19 +2886,19 @@
         <v>150102002</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M34">
         <v>54.4</v>
@@ -2910,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -2933,19 +2930,19 @@
         <v>150102002</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M35">
         <v>5</v>
@@ -2954,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2977,19 +2974,19 @@
         <v>150102002</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M36">
         <v>14.4</v>
@@ -2998,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -3021,19 +3018,19 @@
         <v>150102002</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M37">
         <v>13.1</v>
@@ -3042,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3065,19 +3062,19 @@
         <v>150102002</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M38">
         <v>5</v>
@@ -3086,7 +3083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3109,19 +3106,19 @@
         <v>150102002</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M39">
         <v>3.8</v>
@@ -3130,12 +3127,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C40">
         <v>9103</v>
@@ -3153,19 +3150,19 @@
         <v>150102002</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M40">
         <v>56.5</v>
@@ -3174,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3197,19 +3194,19 @@
         <v>150102002</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M41">
         <v>20</v>
@@ -3218,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -3241,19 +3238,19 @@
         <v>150102002</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M42">
         <v>11.3</v>
@@ -3262,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3285,19 +3282,19 @@
         <v>150102002</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M43">
         <v>6.3</v>
@@ -3306,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3329,19 +3326,19 @@
         <v>150102002</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M44">
         <v>5</v>
@@ -3350,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3373,19 +3370,19 @@
         <v>150102002</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M45">
         <v>18.100000000000001</v>
@@ -3394,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -3417,19 +3414,19 @@
         <v>150102002</v>
       </c>
       <c r="H46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -3438,7 +3435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -3461,19 +3458,19 @@
         <v>150102002</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M47">
         <v>25.6</v>
@@ -3482,7 +3479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -3505,19 +3502,19 @@
         <v>150102002</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M48">
         <v>5</v>
@@ -3526,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -3549,19 +3546,19 @@
         <v>150102002</v>
       </c>
       <c r="H49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M49">
         <v>7.5</v>
@@ -3570,7 +3567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -3593,19 +3590,19 @@
         <v>150102002</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M50">
         <v>4.2</v>
@@ -3614,12 +3611,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C51">
         <v>10403</v>
@@ -3637,19 +3634,19 @@
         <v>150102002</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M51">
         <v>4.2</v>
@@ -3658,12 +3655,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C52">
         <v>9205</v>
@@ -3681,19 +3678,19 @@
         <v>150102002</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M52">
         <v>12</v>
@@ -3702,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -3725,19 +3722,19 @@
         <v>150102002</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M53">
         <v>3.8</v>
@@ -3746,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -3769,19 +3766,19 @@
         <v>150102002</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M54">
         <v>9.4</v>
@@ -3790,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
@@ -3813,19 +3810,19 @@
         <v>150102002</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M55">
         <v>3</v>
@@ -3834,12 +3831,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C56">
         <v>9120</v>
@@ -3857,19 +3854,19 @@
         <v>150102002</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M56">
         <v>11</v>
@@ -3878,12 +3875,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C57">
         <v>10203</v>
@@ -3901,19 +3898,19 @@
         <v>150102002</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M57">
         <v>17.5</v>
@@ -3922,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
@@ -3945,19 +3942,19 @@
         <v>150102002</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M58">
         <v>4.4000000000000004</v>
@@ -3966,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
@@ -3989,19 +3986,19 @@
         <v>150102002</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M59">
         <v>4.2</v>
@@ -4010,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -4033,19 +4030,19 @@
         <v>150102002</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M60">
         <v>14.4</v>
@@ -4054,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -4077,19 +4074,19 @@
         <v>150102002</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
       <c r="L61" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M61">
         <v>24.4</v>
@@ -4098,7 +4095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -4121,19 +4118,19 @@
         <v>150102002</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M62">
         <v>3.8</v>
@@ -4142,7 +4139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -4165,19 +4162,19 @@
         <v>150102002</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M63">
         <v>8.1</v>
@@ -4186,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -4209,19 +4206,19 @@
         <v>150102002</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M64">
         <v>20.6</v>
@@ -4230,12 +4227,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C65">
         <v>10402</v>
@@ -4253,19 +4250,19 @@
         <v>150102002</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M65">
         <v>3.1</v>
@@ -4274,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -4297,19 +4294,19 @@
         <v>150102002</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M66">
         <v>10.6</v>
@@ -4318,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -4341,19 +4338,19 @@
         <v>150102002</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M67">
         <v>5.9</v>
@@ -4362,7 +4359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -4385,19 +4382,19 @@
         <v>150102002</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M68">
         <v>9.4</v>
@@ -4406,12 +4403,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C69">
         <v>10401</v>
@@ -4429,19 +4426,19 @@
         <v>150102002</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M69">
         <v>10.6</v>
@@ -4450,12 +4447,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C70">
         <v>14108</v>
@@ -4473,19 +4470,19 @@
         <v>150102002</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I70" t="s">
         <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M70">
         <v>111</v>
@@ -4494,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
@@ -4517,19 +4514,19 @@
         <v>150102002</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M71">
         <v>13.8</v>
@@ -4538,12 +4535,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C72">
         <v>14108</v>
@@ -4561,19 +4558,19 @@
         <v>150102002</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K72">
         <v>3</v>
       </c>
       <c r="L72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M72">
         <v>33.799999999999997</v>
@@ -4582,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
@@ -4605,19 +4602,19 @@
         <v>150102002</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K73">
         <v>3</v>
       </c>
       <c r="L73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M73">
         <v>9.4</v>
@@ -4626,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -4649,19 +4646,19 @@
         <v>150102002</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M74">
         <v>5</v>
@@ -4670,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11</v>
       </c>
@@ -4693,19 +4690,19 @@
         <v>150102002</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K75">
         <v>3</v>
       </c>
       <c r="L75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M75">
         <v>313</v>
@@ -4714,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -4737,19 +4734,19 @@
         <v>150102002</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K76">
         <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M76">
         <v>5</v>
@@ -4758,7 +4755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -4781,19 +4778,19 @@
         <v>150102002</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M77">
         <v>15</v>
@@ -4802,7 +4799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
@@ -4825,19 +4822,19 @@
         <v>150102002</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K78">
         <v>3</v>
       </c>
       <c r="L78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M78">
         <v>3</v>
@@ -4846,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11</v>
       </c>
@@ -4869,19 +4866,19 @@
         <v>150102002</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K79">
         <v>3</v>
       </c>
       <c r="L79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M79">
         <v>6.4</v>
@@ -4890,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11</v>
       </c>
@@ -4913,19 +4910,19 @@
         <v>150102002</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K80">
         <v>3</v>
       </c>
       <c r="L80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M80">
         <v>32.5</v>
@@ -4934,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11</v>
       </c>
@@ -4957,19 +4954,19 @@
         <v>150102002</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K81">
         <v>3</v>
       </c>
       <c r="L81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M81">
         <v>6.3</v>
@@ -4978,12 +4975,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C82">
         <v>10109</v>
@@ -5001,19 +4998,19 @@
         <v>150102002</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I82" t="s">
         <v>28</v>
       </c>
       <c r="J82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K82">
         <v>3</v>
       </c>
       <c r="L82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M82">
         <v>183</v>
@@ -5022,7 +5019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11</v>
       </c>
@@ -5045,19 +5042,19 @@
         <v>150102002</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K83">
         <v>3</v>
       </c>
       <c r="L83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M83">
         <v>8.8000000000000007</v>
@@ -5066,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11</v>
       </c>
@@ -5089,19 +5086,19 @@
         <v>150102002</v>
       </c>
       <c r="H84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K84">
         <v>3</v>
       </c>
       <c r="L84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M84">
         <v>3.8</v>
@@ -5110,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -5133,19 +5130,19 @@
         <v>150102002</v>
       </c>
       <c r="H85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K85">
         <v>3</v>
       </c>
       <c r="L85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M85">
         <v>4.3</v>
@@ -5154,7 +5151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -5177,19 +5174,19 @@
         <v>150102002</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I86" t="s">
         <v>65</v>
       </c>
       <c r="J86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K86">
         <v>3</v>
       </c>
       <c r="L86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M86">
         <v>3.3</v>
@@ -5198,7 +5195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
@@ -5221,19 +5218,19 @@
         <v>150102002</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I87" t="s">
         <v>65</v>
       </c>
       <c r="J87" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K87">
         <v>3</v>
       </c>
       <c r="L87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M87">
         <v>22.2</v>
@@ -5242,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11</v>
       </c>
@@ -5265,19 +5262,19 @@
         <v>150102002</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K88">
         <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M88">
         <v>9.4</v>
@@ -5286,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -5309,19 +5306,19 @@
         <v>150102002</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K89">
         <v>3</v>
       </c>
       <c r="L89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M89">
         <v>59.4</v>
@@ -5330,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
@@ -5353,19 +5350,19 @@
         <v>150102002</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K90">
         <v>3</v>
       </c>
       <c r="L90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M90">
         <v>6.9</v>
@@ -5374,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
@@ -5397,19 +5394,19 @@
         <v>150102002</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K91">
         <v>3</v>
       </c>
       <c r="L91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M91">
         <v>8.8000000000000007</v>
@@ -5423,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C92">
         <v>1405</v>
@@ -5441,19 +5438,19 @@
         <v>150102003</v>
       </c>
       <c r="H92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I92" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="J92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K92">
         <v>3</v>
       </c>
       <c r="L92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M92">
         <v>999</v>
@@ -5485,19 +5482,19 @@
         <v>150102003</v>
       </c>
       <c r="H93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K93">
         <v>3</v>
       </c>
       <c r="L93" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M93">
         <v>3</v>
@@ -5511,7 +5508,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C94">
         <v>16107</v>
@@ -5529,19 +5526,19 @@
         <v>150102003</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K94">
         <v>3</v>
       </c>
       <c r="L94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M94">
         <v>1.8</v>
@@ -5555,7 +5552,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C95">
         <v>10103</v>
@@ -5573,19 +5570,19 @@
         <v>150102003</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K95">
         <v>3</v>
       </c>
       <c r="L95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M95">
         <v>12.5</v>
@@ -5599,7 +5596,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C96">
         <v>15202</v>
@@ -5617,19 +5614,19 @@
         <v>150102003</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I96" t="s">
         <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K96">
         <v>3</v>
       </c>
       <c r="L96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M96">
         <v>13.8</v>
@@ -5643,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C97">
         <v>3202</v>
@@ -5661,19 +5658,19 @@
         <v>150102003</v>
       </c>
       <c r="H97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K97">
         <v>3</v>
       </c>
       <c r="L97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M97">
         <v>4.7</v>
@@ -5687,7 +5684,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C98">
         <v>10403</v>
@@ -5705,19 +5702,19 @@
         <v>150102003</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K98">
         <v>3</v>
       </c>
       <c r="L98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M98">
         <v>4.5</v>
@@ -5749,19 +5746,19 @@
         <v>150102003</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K99">
         <v>3</v>
       </c>
       <c r="L99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M99">
         <v>4.4000000000000004</v>
@@ -5793,19 +5790,19 @@
         <v>150102003</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K100">
         <v>3</v>
       </c>
       <c r="L100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M100">
         <v>4.8</v>
@@ -5819,7 +5816,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C101">
         <v>10109</v>
@@ -5837,19 +5834,19 @@
         <v>150102003</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J101" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K101">
         <v>3</v>
       </c>
       <c r="L101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M101">
         <v>4.4000000000000004</v>
@@ -5863,7 +5860,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C102">
         <v>10401</v>
@@ -5881,19 +5878,19 @@
         <v>150102003</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K102">
         <v>3</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M102">
         <v>3.4</v>
@@ -5907,7 +5904,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C103">
         <v>10208</v>
@@ -5925,19 +5922,19 @@
         <v>150102003</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K103">
         <v>3</v>
       </c>
       <c r="L103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M103">
         <v>14.4</v>
@@ -5951,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C104">
         <v>3302</v>
@@ -5969,19 +5966,19 @@
         <v>150102003</v>
       </c>
       <c r="H104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K104">
         <v>3</v>
       </c>
       <c r="L104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M104">
         <v>0.8</v>
@@ -5995,7 +5992,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C105">
         <v>15201</v>
@@ -6013,19 +6010,19 @@
         <v>150102003</v>
       </c>
       <c r="H105" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J105" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K105">
         <v>2</v>
       </c>
       <c r="L105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M105">
         <v>20.6</v>
@@ -6057,19 +6054,19 @@
         <v>150102003</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I106" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K106">
         <v>3</v>
       </c>
       <c r="L106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M106">
         <v>3.9</v>
@@ -6083,7 +6080,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C107">
         <v>9110</v>
@@ -6101,19 +6098,19 @@
         <v>150102003</v>
       </c>
       <c r="H107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K107">
         <v>3</v>
       </c>
       <c r="L107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M107">
         <v>7.8</v>
@@ -6145,19 +6142,19 @@
         <v>150102003</v>
       </c>
       <c r="H108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K108">
         <v>3</v>
       </c>
       <c r="L108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M108">
         <v>5.6</v>
@@ -6171,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C109">
         <v>13404</v>
@@ -6189,19 +6186,19 @@
         <v>150102003</v>
       </c>
       <c r="H109" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I109" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J109" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K109">
         <v>3</v>
       </c>
       <c r="L109" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M109">
         <v>11.7</v>
@@ -6215,7 +6212,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C110">
         <v>13302</v>
@@ -6233,19 +6230,19 @@
         <v>150102003</v>
       </c>
       <c r="H110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K110">
         <v>3</v>
       </c>
       <c r="L110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M110">
         <v>2.8</v>
@@ -6259,7 +6256,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C111">
         <v>10208</v>
@@ -6277,19 +6274,19 @@
         <v>150102003</v>
       </c>
       <c r="H111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K111">
         <v>3</v>
       </c>
       <c r="L111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M111">
         <v>4</v>
@@ -6303,7 +6300,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C112">
         <v>15201</v>
@@ -6321,19 +6318,19 @@
         <v>150102003</v>
       </c>
       <c r="H112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K112">
         <v>2</v>
       </c>
       <c r="L112" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M112">
         <v>6.9</v>
@@ -6347,7 +6344,7 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C113">
         <v>9205</v>
@@ -6365,19 +6362,19 @@
         <v>150102003</v>
       </c>
       <c r="H113" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J113" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K113">
         <v>3</v>
       </c>
       <c r="L113" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M113">
         <v>7.5</v>
@@ -6409,19 +6406,19 @@
         <v>150102003</v>
       </c>
       <c r="H114" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J114" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K114">
         <v>2</v>
       </c>
       <c r="L114" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M114">
         <v>2.7</v>
@@ -6435,7 +6432,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C115">
         <v>8302</v>
@@ -6453,19 +6450,19 @@
         <v>150102003</v>
       </c>
       <c r="H115" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I115" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J115" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K115">
         <v>2</v>
       </c>
       <c r="L115" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M115">
         <v>124</v>
@@ -6479,7 +6476,7 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C116">
         <v>10401</v>
@@ -6497,19 +6494,19 @@
         <v>150102003</v>
       </c>
       <c r="H116" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J116" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K116">
         <v>3</v>
       </c>
       <c r="L116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M116">
         <v>4.4000000000000004</v>
@@ -6523,7 +6520,7 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C117">
         <v>10103</v>
@@ -6541,19 +6538,19 @@
         <v>150102003</v>
       </c>
       <c r="H117" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I117" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J117" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K117">
         <v>3</v>
       </c>
       <c r="L117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M117">
         <v>9.4</v>
@@ -6585,19 +6582,19 @@
         <v>150102003</v>
       </c>
       <c r="H118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K118">
         <v>3</v>
       </c>
       <c r="L118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M118">
         <v>3.3</v>
@@ -6629,19 +6626,19 @@
         <v>150102003</v>
       </c>
       <c r="H119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M119">
         <v>0.5</v>
@@ -6655,7 +6652,7 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C120">
         <v>10203</v>
@@ -6673,19 +6670,19 @@
         <v>150102003</v>
       </c>
       <c r="H120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K120">
         <v>3</v>
       </c>
       <c r="L120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M120">
         <v>8.1</v>
@@ -6717,19 +6714,19 @@
         <v>150102003</v>
       </c>
       <c r="H121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K121">
         <v>3</v>
       </c>
       <c r="L121" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M121">
         <v>3.1</v>
@@ -6761,19 +6758,19 @@
         <v>150102003</v>
       </c>
       <c r="H122" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I122" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J122" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K122">
         <v>2</v>
       </c>
       <c r="L122" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M122">
         <v>68</v>
@@ -6787,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C123">
         <v>3103</v>
@@ -6805,19 +6802,19 @@
         <v>150102003</v>
       </c>
       <c r="H123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I123" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K123">
         <v>3</v>
       </c>
       <c r="L123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M123">
         <v>29</v>
@@ -6831,7 +6828,7 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C124">
         <v>10402</v>
@@ -6849,19 +6846,19 @@
         <v>150102003</v>
       </c>
       <c r="H124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I124" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K124">
         <v>3</v>
       </c>
       <c r="L124" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M124">
         <v>3</v>
@@ -6875,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C125">
         <v>4204</v>
@@ -6893,19 +6890,19 @@
         <v>150102003</v>
       </c>
       <c r="H125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K125">
         <v>3</v>
       </c>
       <c r="L125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M125">
         <v>3.1</v>
@@ -6937,19 +6934,19 @@
         <v>150102003</v>
       </c>
       <c r="H126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K126">
         <v>3</v>
       </c>
       <c r="L126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M126">
         <v>6.3</v>
@@ -6963,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C127">
         <v>3202</v>
@@ -6981,19 +6978,19 @@
         <v>150102003</v>
       </c>
       <c r="H127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I127" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K127">
         <v>3</v>
       </c>
       <c r="L127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M127">
         <v>4.5</v>
@@ -7025,19 +7022,19 @@
         <v>150102003</v>
       </c>
       <c r="H128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K128">
         <v>3</v>
       </c>
       <c r="L128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M128">
         <v>6.9</v>
@@ -7051,7 +7048,7 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C129">
         <v>10401</v>
@@ -7069,19 +7066,19 @@
         <v>150102003</v>
       </c>
       <c r="H129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I129" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K129">
         <v>3</v>
       </c>
       <c r="L129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M129">
         <v>5.8</v>
@@ -7095,7 +7092,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C130">
         <v>10402</v>
@@ -7113,19 +7110,19 @@
         <v>150102003</v>
       </c>
       <c r="H130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I130" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K130">
         <v>3</v>
       </c>
       <c r="L130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M130">
         <v>15</v>
@@ -7139,7 +7136,7 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C131">
         <v>10401</v>
@@ -7157,19 +7154,19 @@
         <v>150102003</v>
       </c>
       <c r="H131" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I131" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J131" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K131">
         <v>3</v>
       </c>
       <c r="L131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M131">
         <v>3</v>
@@ -7183,7 +7180,7 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C132">
         <v>3302</v>
@@ -7201,19 +7198,19 @@
         <v>150102003</v>
       </c>
       <c r="H132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I132" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K132">
         <v>3</v>
       </c>
       <c r="L132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M132">
         <v>1.2</v>
@@ -7227,7 +7224,7 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C133">
         <v>8108</v>
@@ -7245,19 +7242,19 @@
         <v>150102003</v>
       </c>
       <c r="H133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I133" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K133">
         <v>3</v>
       </c>
       <c r="L133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M133">
         <v>1.4</v>
@@ -7271,7 +7268,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C134">
         <v>14203</v>
@@ -7289,19 +7286,19 @@
         <v>150102003</v>
       </c>
       <c r="H134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I134" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K134">
         <v>3</v>
       </c>
       <c r="L134" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M134">
         <v>10.6</v>
@@ -7315,7 +7312,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C135">
         <v>14203</v>
@@ -7333,19 +7330,19 @@
         <v>150102003</v>
       </c>
       <c r="H135" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I135" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J135" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K135">
         <v>3</v>
       </c>
       <c r="L135" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M135">
         <v>12.5</v>
@@ -7359,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C136">
         <v>10401</v>
@@ -7377,19 +7374,19 @@
         <v>150102003</v>
       </c>
       <c r="H136" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I136" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J136" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K136">
         <v>3</v>
       </c>
       <c r="L136" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M136">
         <v>4.8</v>
@@ -7403,7 +7400,7 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C137">
         <v>10103</v>
@@ -7421,19 +7418,19 @@
         <v>150102003</v>
       </c>
       <c r="H137" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J137" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K137">
         <v>3</v>
       </c>
       <c r="L137" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M137">
         <v>4.8</v>
@@ -7447,7 +7444,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C138">
         <v>10401</v>
@@ -7465,19 +7462,19 @@
         <v>150102003</v>
       </c>
       <c r="H138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K138">
         <v>3</v>
       </c>
       <c r="L138" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M138">
         <v>9.1</v>
@@ -7509,19 +7506,19 @@
         <v>150102003</v>
       </c>
       <c r="H139" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J139" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K139">
         <v>3</v>
       </c>
       <c r="L139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M139">
         <v>3</v>
@@ -7553,19 +7550,19 @@
         <v>150102003</v>
       </c>
       <c r="H140" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J140" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K140">
         <v>3</v>
       </c>
       <c r="L140" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M140">
         <v>4.4000000000000004</v>
@@ -7579,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C141">
         <v>2203</v>
@@ -7597,19 +7594,19 @@
         <v>150102003</v>
       </c>
       <c r="H141" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
       </c>
       <c r="J141" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K141">
         <v>3</v>
       </c>
       <c r="L141" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M141">
         <v>2.1</v>
@@ -7623,7 +7620,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C142">
         <v>2203</v>
@@ -7641,19 +7638,19 @@
         <v>150102003</v>
       </c>
       <c r="H142" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I142" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J142" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K142">
         <v>3</v>
       </c>
       <c r="L142" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M142">
         <v>1.8</v>
@@ -7667,7 +7664,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C143">
         <v>2203</v>
@@ -7685,19 +7682,19 @@
         <v>150102003</v>
       </c>
       <c r="H143" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I143" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J143" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K143">
         <v>3</v>
       </c>
       <c r="L143" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M143">
         <v>15</v>
@@ -7711,7 +7708,7 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C144">
         <v>13203</v>
@@ -7729,19 +7726,19 @@
         <v>150102003</v>
       </c>
       <c r="H144" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I144" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J144" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K144">
         <v>2</v>
       </c>
       <c r="L144" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M144">
         <v>4.7</v>
@@ -7773,19 +7770,19 @@
         <v>150102003</v>
       </c>
       <c r="H145" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I145" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J145" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K145">
         <v>3</v>
       </c>
       <c r="L145" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M145">
         <v>3.1</v>
@@ -7799,7 +7796,7 @@
         <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C146">
         <v>14108</v>
@@ -7817,19 +7814,19 @@
         <v>150102003</v>
       </c>
       <c r="H146" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I146" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J146" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K146">
         <v>3</v>
       </c>
       <c r="L146" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M146">
         <v>9.4</v>
@@ -7843,7 +7840,7 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C147">
         <v>14108</v>
@@ -7861,19 +7858,19 @@
         <v>150102003</v>
       </c>
       <c r="H147" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J147" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K147">
         <v>3</v>
       </c>
       <c r="L147" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M147">
         <v>5.6</v>
@@ -7905,19 +7902,19 @@
         <v>150102003</v>
       </c>
       <c r="H148" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I148" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J148" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K148">
         <v>1</v>
       </c>
       <c r="L148" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M148">
         <v>11</v>
@@ -7931,7 +7928,7 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C149">
         <v>14108</v>
@@ -7949,19 +7946,19 @@
         <v>150102003</v>
       </c>
       <c r="H149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I149" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K149">
         <v>2</v>
       </c>
       <c r="L149" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M149">
         <v>6.3</v>
@@ -7975,7 +7972,7 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C150">
         <v>10401</v>
@@ -7993,19 +7990,19 @@
         <v>150102003</v>
       </c>
       <c r="H150" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I150" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J150" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K150">
         <v>3</v>
       </c>
       <c r="L150" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M150">
         <v>17.5</v>
@@ -8019,7 +8016,7 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C151">
         <v>10208</v>
@@ -8037,19 +8034,19 @@
         <v>150102003</v>
       </c>
       <c r="H151" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I151" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J151" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K151">
         <v>3</v>
       </c>
       <c r="L151" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M151">
         <v>3.3</v>
@@ -8063,7 +8060,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C152">
         <v>3101</v>
@@ -8081,19 +8078,19 @@
         <v>150102003</v>
       </c>
       <c r="H152" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I152" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J152" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K152">
         <v>3</v>
       </c>
       <c r="L152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M152">
         <v>2.6</v>
@@ -8107,7 +8104,7 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C153">
         <v>10103</v>
@@ -8125,19 +8122,19 @@
         <v>150102003</v>
       </c>
       <c r="H153" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I153" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J153" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K153">
         <v>3</v>
       </c>
       <c r="L153" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M153">
         <v>13.1</v>
@@ -8151,7 +8148,7 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C154">
         <v>10203</v>
@@ -8169,19 +8166,19 @@
         <v>150102003</v>
       </c>
       <c r="H154" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I154" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J154" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K154">
         <v>3</v>
       </c>
       <c r="L154" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M154">
         <v>8.1999999999999993</v>
@@ -8195,7 +8192,7 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C155">
         <v>10203</v>
@@ -8213,19 +8210,19 @@
         <v>150102003</v>
       </c>
       <c r="H155" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I155" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J155" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K155">
         <v>3</v>
       </c>
       <c r="L155" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M155">
         <v>16.899999999999999</v>
@@ -8257,19 +8254,19 @@
         <v>150102003</v>
       </c>
       <c r="H156" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I156" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J156" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K156">
         <v>3</v>
       </c>
       <c r="L156" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M156">
         <v>5.6</v>
@@ -8283,7 +8280,7 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C157">
         <v>10401</v>
@@ -8301,19 +8298,19 @@
         <v>150102003</v>
       </c>
       <c r="H157" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I157" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J157" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K157">
         <v>3</v>
       </c>
       <c r="L157" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M157">
         <v>18.100000000000001</v>
@@ -8327,7 +8324,7 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C158">
         <v>10208</v>
@@ -8345,19 +8342,19 @@
         <v>150102003</v>
       </c>
       <c r="H158" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I158" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J158" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K158">
         <v>3</v>
       </c>
       <c r="L158" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M158">
         <v>4.8</v>
@@ -8371,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C159">
         <v>2203</v>
@@ -8389,19 +8386,19 @@
         <v>150102003</v>
       </c>
       <c r="H159" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I159" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J159" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K159">
         <v>3</v>
       </c>
       <c r="L159" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M159">
         <v>2.7</v>
@@ -8433,19 +8430,19 @@
         <v>150102003</v>
       </c>
       <c r="H160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I160" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K160">
         <v>3</v>
       </c>
       <c r="L160" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M160">
         <v>6.5</v>
@@ -8459,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C161">
         <v>3101</v>
@@ -8477,19 +8474,19 @@
         <v>150102003</v>
       </c>
       <c r="H161" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I161" t="s">
         <v>24</v>
       </c>
       <c r="J161" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K161">
         <v>3</v>
       </c>
       <c r="L161" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M161">
         <v>16.3</v>
@@ -8521,19 +8518,19 @@
         <v>150102003</v>
       </c>
       <c r="H162" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I162" t="s">
         <v>24</v>
       </c>
       <c r="J162" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K162">
         <v>3</v>
       </c>
       <c r="L162" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M162">
         <v>3.8</v>
@@ -8565,19 +8562,19 @@
         <v>150102003</v>
       </c>
       <c r="H163" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I163" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J163" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K163">
         <v>3</v>
       </c>
       <c r="L163" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M163">
         <v>11.9</v>
@@ -8591,7 +8588,7 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C164">
         <v>10103</v>
@@ -8609,19 +8606,19 @@
         <v>150102003</v>
       </c>
       <c r="H164" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I164" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J164" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K164">
         <v>3</v>
       </c>
       <c r="L164" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M164">
         <v>6.9</v>
@@ -8653,19 +8650,19 @@
         <v>150102003</v>
       </c>
       <c r="H165" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I165" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J165" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K165">
         <v>3</v>
       </c>
       <c r="L165" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M165">
         <v>3.8</v>
@@ -8679,7 +8676,7 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C166">
         <v>10208</v>
@@ -8697,19 +8694,19 @@
         <v>150102003</v>
       </c>
       <c r="H166" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I166" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J166" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K166">
         <v>3</v>
       </c>
       <c r="L166" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M166">
         <v>5.7</v>
@@ -23489,43 +23486,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
         <v>252</v>
       </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" t="s">
-        <v>254</v>
-      </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G2" s="4">
         <v>2021</v>
       </c>
       <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
         <v>259</v>
-      </c>
-      <c r="I2" t="s">
-        <v>261</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M2" s="2">
         <v>44319</v>
       </c>
       <c r="N2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
@@ -23536,43 +23533,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" t="s">
         <v>253</v>
       </c>
-      <c r="C3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>255</v>
-      </c>
-      <c r="F3" t="s">
-        <v>257</v>
       </c>
       <c r="G3" s="4">
         <v>2021</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M3" s="2">
         <v>44319</v>
       </c>
       <c r="N3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -23583,43 +23580,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G4" s="4">
         <v>2021</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M4" s="2">
         <v>44319</v>
       </c>
       <c r="N4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
